--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1055864.082318955</v>
+        <v>1053976.500802553</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>46.37965240921702</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>215.4905297143698</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>173.8683972746516</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>135.4095352681599</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>2.287273915476826</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W7" t="n">
-        <v>58.97572708696871</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>18.35972287918744</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>363.5687190723341</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>127.0044127072329</v>
       </c>
       <c r="W10" t="n">
-        <v>1.032773951870474</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417096</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1576,7 +1576,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>101.2898147863546</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.562624396424525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.2838120106858</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.2898147863542</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>49.13486603126662</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.1880071964679</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>138.6902956258802</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>255.8134085375531</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.3514698018591</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>175.6661531421474</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>94.16481274941268</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>93.41221638965543</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>91.23070601801224</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>42.20569823125184</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523562</v>
+        <v>54.76109577523587</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>110.2657143881864</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329119</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463113</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1185.963190797449</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1185.963190797449</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>827.6974921906988</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>441.9092395924545</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,7 +4355,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
         <v>2302.336936304455</v>
@@ -4370,10 +4370,10 @@
         <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.102522773261</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1185.963190797449</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,28 +4404,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>552.5043404946648</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>552.5043404946648</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>552.5043404946648</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>552.5043404946648</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>552.5043404946648</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>552.5043404946648</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.5043404946648</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>769.0955750279682</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>358.1096702383606</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>344.1862661769515</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2463.632536170485</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.166777909405</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.166777909405</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782189</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782189</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1413.169543948888</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332392</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988821</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988821</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>2189.908715988821</v>
+        <v>1161.108455511198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1799.76938401301</v>
+        <v>770.969123535386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>182.230267383226</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>578.9391196286279</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,55 +5015,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5176,43 +5176,43 @@
         <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,22 +5224,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227916</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169048</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W13" t="n">
-        <v>330.8254548799441</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X13" t="n">
-        <v>102.8359039819268</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5258,19 +5258,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5285,7 +5285,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1771.104817265284</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
         <v>2525.810590821615</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9316061372624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>959.9316061372624</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5534,28 +5534,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>315.6192635197078</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>929.5163332765965</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820709</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039406</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.3743239205529</v>
+        <v>199.5300356889264</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1449.285092748542</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>1160.1564539621</v>
+        <v>675.0071030383434</v>
       </c>
       <c r="V19" t="n">
-        <v>1160.1564539621</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="W19" t="n">
-        <v>1160.1564539621</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="X19" t="n">
-        <v>932.166903064083</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.3743239205529</v>
+        <v>199.5300356889264</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072713</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.2823606383756</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1388.625354197834</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1188.705344113386</v>
       </c>
       <c r="T22" t="n">
-        <v>1358.825062854993</v>
+        <v>964.9199289028918</v>
       </c>
       <c r="U22" t="n">
-        <v>1358.825062854993</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="V22" t="n">
-        <v>1104.140574649106</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="W22" t="n">
-        <v>814.7234046121454</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X22" t="n">
-        <v>814.7234046121454</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y22" t="n">
-        <v>593.9308254686152</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028556</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>929.516333276596</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.836466556558</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>1240.518888196738</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V25" t="n">
-        <v>985.8343999908507</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W25" t="n">
-        <v>696.41722995389</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="X25" t="n">
-        <v>468.4276790558727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.2236783705321</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>394.2236783705321</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>1097.690296617966</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V28" t="n">
-        <v>843.0058084120795</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W28" t="n">
-        <v>843.0058084120795</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>615.0162575140622</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>394.2236783705321</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M30" t="n">
-        <v>1689.561836756086</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>2019.424464420119</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>2298.964529638816</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2503.987010421026</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.101093324843</v>
+        <v>439.5324299542156</v>
       </c>
       <c r="C31" t="n">
-        <v>581.925775678307</v>
+        <v>326.3571123076793</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473421</v>
+        <v>232.0013381767142</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463199</v>
+        <v>139.8491098756917</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>139.8491098756917</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309716</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096194</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591124</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1391.905397108107</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352517</v>
+        <v>902.6804289818912</v>
       </c>
       <c r="X31" t="n">
-        <v>986.020406735871</v>
+        <v>730.4517433652445</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737118</v>
+        <v>565.4200295030846</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,25 +6689,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>180.0505168052655</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>329.1202010073254</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>943.017270764214</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1711.385417156675</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003442</v>
@@ -6923,34 +6923,34 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1396.107276203138</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.969903867171</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,13 +7099,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525395</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,13 +7400,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7418,22 +7418,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,19 +7725,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O45" t="n">
         <v>2123.441607278215</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,31 +7801,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747125</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>8.406710013102128</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>272.8719470256806</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>28.12263706263096</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>358.3520020925044</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>134.497745353511</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N27" t="n">
-        <v>288.4091825776757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.04402060665545</v>
+        <v>39.88923345256772</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>41.7599476561839</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>15.83804904622903</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711668</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>295.3773510571274</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>360.5026862907257</v>
       </c>
       <c r="N39" t="n">
-        <v>381.3739760657751</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>230.7151863772034</v>
+        <v>165.9802687929766</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>43.6598726146247</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.0220289556703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.54816817125149</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.95700631227363</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4126950271226</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0.7763452073249549</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.85726543250905</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>30.42394386102424</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24604,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.57119925643</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871783</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437432</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356881</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389792</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571481</v>
+        <v>55.21598883571507</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,13 +24889,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>86.66867230708446</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-6.394884621840902e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>984701.5873097042</v>
+        <v>984701.587309704</v>
       </c>
     </row>
     <row r="11">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>410520.8849321416</v>
+      </c>
+      <c r="C2" t="n">
         <v>410520.8849321415</v>
       </c>
-      <c r="C2" t="n">
-        <v>410520.8849321416</v>
-      </c>
       <c r="D2" t="n">
-        <v>410520.8849321414</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
+        <v>391029.0597377088</v>
+      </c>
+      <c r="F2" t="n">
         <v>391029.0597377089</v>
       </c>
-      <c r="F2" t="n">
-        <v>391029.0597377088</v>
-      </c>
       <c r="G2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
         <v>391029.0597377088</v>
       </c>
       <c r="I2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="J2" t="n">
         <v>391029.0597377089</v>
@@ -26344,16 +26344,16 @@
         <v>410520.8849321422</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321422</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086701</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284552</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
+        <v>7916.731656007565</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007496</v>
-      </c>
       <c r="G4" t="n">
+        <v>7916.731656007536</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007505</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007492</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007485</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007534</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020405</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732791</v>
+      </c>
+      <c r="N4" t="n">
         <v>30335.51889732796</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-410223.1210617332</v>
       </c>
       <c r="C6" t="n">
-        <v>179744.7581528114</v>
+        <v>179744.7581528112</v>
       </c>
       <c r="D6" t="n">
-        <v>179744.7581528111</v>
+        <v>179744.7581528112</v>
       </c>
       <c r="E6" t="n">
-        <v>-234035.0343439114</v>
+        <v>-234132.4934698835</v>
       </c>
       <c r="F6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="G6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="H6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070125</v>
       </c>
       <c r="I6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070125</v>
       </c>
       <c r="J6" t="n">
-        <v>114701.7829403918</v>
+        <v>114604.32381442</v>
       </c>
       <c r="K6" t="n">
-        <v>239949.969341998</v>
+        <v>239931.4756040637</v>
       </c>
       <c r="L6" t="n">
-        <v>272127.3534139221</v>
+        <v>272127.3534139218</v>
       </c>
       <c r="M6" t="n">
         <v>147669.2449809516</v>
       </c>
       <c r="N6" t="n">
-        <v>282470.260214789</v>
+        <v>282470.2602147887</v>
       </c>
       <c r="O6" t="n">
-        <v>282470.2602147888</v>
+        <v>282470.2602147887</v>
       </c>
       <c r="P6" t="n">
-        <v>238307.6549119431</v>
+        <v>238307.6549119434</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,16 +26750,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108377</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.2032566285569</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>360.4963933324944</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>170.7474089416838</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>38.27714167536732</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>188.5132374961972</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>346.9536948019362</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W7" t="n">
-        <v>227.5472712496223</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>346.9131688918201</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>6.162381606134943</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>125.1332306165951</v>
       </c>
       <c r="W10" t="n">
-        <v>285.4902243847205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,46 +32938,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33099,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35489,7 +35489,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>215.5001249446268</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>555.2356492667888</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>178.6980756505701</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35981,10 +35981,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>668.7763791429707</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36221,7 +36221,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>383.7554503095353</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N27" t="n">
-        <v>621.6037559756885</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.0570533917296</v>
+        <v>127.9022662376418</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941227</v>
+        <v>67.71102679412245</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043193</v>
+        <v>94.42895660043168</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>83.67012661109055</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130335</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>605.8017281075937</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N39" t="n">
-        <v>714.5685494637879</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>541.1395634276697</v>
+        <v>476.4046458434428</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>354.084249665091</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>464.3977765279033</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
